--- a/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes-UI.xlsx
+++ b/templates/QARSF/RSTK8065-Consolidated Sales Order Fulfillment-AllProductTypes-UI.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Customer</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>999767.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>90930.0</t>
+  </si>
+  <si>
+    <t>999687.0</t>
   </si>
 </sst>
 </file>
@@ -256,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +304,42 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -341,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -358,11 +403,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -377,8 +431,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -721,7 +781,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -735,7 +795,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>62</v>
@@ -749,7 +809,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
